--- a/ARTIQ_ALTIUM/EEMs/Tester/Project Outputs for PCB_3U_Tester/BOM/Bill of Materials-PCB_3U_Tester.xlsx
+++ b/ARTIQ_ALTIUM/EEMs/Tester/Project Outputs for PCB_3U_Tester/BOM/Bill of Materials-PCB_3U_Tester.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26805" windowHeight="11715"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_3U_Tester" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="150">
   <si>
     <t>Comment</t>
   </si>
@@ -408,6 +408,30 @@
     <t>NRC06F8202TRF</t>
   </si>
   <si>
+    <t>Jumper Type1</t>
+  </si>
+  <si>
+    <t>Jumper 1 Pin</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>JUMPER_BLACK_INSULATED_2.54MM</t>
+  </si>
+  <si>
+    <t>KONTEK COMATEL</t>
+  </si>
+  <si>
+    <t>313.1730.0.00.40.0</t>
+  </si>
+  <si>
+    <t>Closed Insulated Black Jumper Pitch 2.54mm</t>
+  </si>
+  <si>
+    <t>COMATEL_313.1730.0.00.40.0</t>
+  </si>
+  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -427,6 +451,24 @@
   </si>
   <si>
     <t>8 Way SPST SMD DIP Switch, Latched, Contact Rating 0.025A 24VDC</t>
+  </si>
+  <si>
+    <t>Test Point</t>
+  </si>
+  <si>
+    <t>2 Mini Wire-Wrap Contact Strip Header</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>COMATEL_385.0358.1.02.400</t>
+  </si>
+  <si>
+    <t>385.0358.1.02.400</t>
+  </si>
+  <si>
+    <t>2 Contacts Straight Strip Header Pitch 2.54mm L=6.3mm ''Mini-Wire-Wrap''</t>
   </si>
 </sst>
 </file>
@@ -778,7 +820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1579,14 +1621,90 @@
         <v>135</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L21" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>